--- a/1_Plasma_Pipette/1_Schematic/Plasma_Gen_Pipette_하네스_BOM_V1.0_20180313A.xlsx
+++ b/1_Plasma_Pipette/1_Schematic/Plasma_Gen_Pipette_하네스_BOM_V1.0_20180313A.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK_Femto\Plasma_Generator\1_Plasma_Pipette\1_Schematic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\20171116_Plasma_Generator\1_Plasma_Pipette\1_Schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="5955"/>
   </bookViews>
   <sheets>
-    <sheet name="Plasma_Gen_Pipette_Main_SCH_V1." sheetId="1" r:id="rId1"/>
+    <sheet name="Plasma_Pipette_하네스." sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -77,63 +77,171 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>51021-0300</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch Housing, Female, 3-Pin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>050058-8000</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch Crimp Terminal, Female, 28-32 AWG</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634322</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coms 컨넥터-DC파워 2.5Ø x 0.7(각형)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058 양단 1007 케이블</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634320</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058 양단 케이블 L=100mm, Black</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058 양단 케이블 L=100mm, Red</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWG28</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND 하네스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>양단 50058 케이블</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634256</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634252</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004707690</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBanQ 3/14</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA645</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/29 - 견적 요청</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>악어클립</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>악어클립 대(검정색)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P007314617 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007314616</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>악어클립 대(빨간색)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any Vendor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">케이블 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring 단자</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트컴</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트컴</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Coms 터미널(100pcs)/ Ring단자, RVM 1.25-3.5, 빨강, 3.7mm </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1820</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005602644</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>100pcs</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery 하네스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>1.25mm Pitch Housing, Female, 7-Pin</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>P005634256</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005634252</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>51021-0300</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25mm Pitch Housing, Female, 3-Pin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>050058-8000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25mm Pitch Crimp Terminal, Female, 28-32 AWG</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005634322</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coms 컨넥터-DC파워 2.5Ø x 0.7(각형)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058 양단 1007 케이블</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005634320</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058 양단 케이블 L=100mm, Black</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058 양단 케이블 L=100mm, Red</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이블</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWG28</t>
+    <t>1.25mm Pitch Housing, Female, 5-Pin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>51021-0700</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>51021-0500</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634254</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBanQ</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -141,22 +249,78 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>GND 하네스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>양단 50058 케이블</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004707690</t>
+    <t>09-52-4024</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.96mm Pitch Housing, Female, Friction Ramp, 2-Pin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molex</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634496</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>09-50-1021</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.96mm Pitch SPOX™ Crimp Housing, Female, with Friction Ramp, 2-Pin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5239-02</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5195-02</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634535</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5167T</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRIMP TERMINAL 5239용 (3.96mm)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634542</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-70-1031</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5194T</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPOX Crimp Terminal 5194, 18-24 AWG, Brass</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P005634546 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>양단 케이블 사용</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -347,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +703,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -835,6 +1011,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -992,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,34 +1353,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="36" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="24" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,12 +1852,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1477,16 +1867,17 @@
     <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.125" customWidth="1"/>
+    <col min="6" max="6" width="65.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="6"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="14" max="14" width="13.25" customWidth="1"/>
     <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1496,24 +1887,24 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="17" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K3" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N3" s="15">
         <v>43172</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1554,345 +1945,893 @@
         <v>13</v>
       </c>
       <c r="O4" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="32">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>140</v>
+      </c>
+      <c r="I5" s="13">
+        <f>G5*H5</f>
+        <v>140</v>
+      </c>
+      <c r="J5" s="10">
+        <v>140</v>
+      </c>
+      <c r="K5" s="18">
+        <f>G5*K$3</f>
+        <v>10</v>
+      </c>
+      <c r="L5" s="10">
+        <v>10</v>
+      </c>
+      <c r="M5" s="10">
+        <v>10</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5" si="0">J5*M5</f>
+        <v>1400</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="32">
+        <v>3</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="34">
+        <v>3</v>
+      </c>
+      <c r="H6" s="34">
+        <v>40</v>
+      </c>
+      <c r="I6" s="47">
+        <f>G6*H6</f>
+        <v>120</v>
+      </c>
+      <c r="J6" s="34">
+        <v>40</v>
+      </c>
+      <c r="K6" s="48">
+        <f>G6*K$3</f>
+        <v>30</v>
+      </c>
+      <c r="L6" s="34">
+        <v>100</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41">
+        <v>4</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="14"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="14"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="K9" s="12">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26">
+        <v>230</v>
+      </c>
+      <c r="I11" s="29">
+        <f>G11*H11</f>
+        <v>230</v>
+      </c>
+      <c r="J11" s="26">
+        <v>230</v>
+      </c>
+      <c r="K11" s="30">
+        <f>G11*K$3</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="26">
+        <v>10</v>
+      </c>
+      <c r="M11" s="26">
+        <v>20</v>
+      </c>
+      <c r="N11" s="77">
+        <f t="shared" ref="N11:N12" si="1">J11*M11</f>
+        <v>4600</v>
+      </c>
+      <c r="O11" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="31"/>
+    </row>
+    <row r="12" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="60">
+        <v>2</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="61">
+        <v>1</v>
+      </c>
+      <c r="H12" s="61">
+        <v>210</v>
+      </c>
+      <c r="I12" s="64">
+        <v>210</v>
+      </c>
+      <c r="J12" s="61">
+        <v>210</v>
+      </c>
+      <c r="K12" s="65">
+        <v>10</v>
+      </c>
+      <c r="L12" s="61">
+        <v>50</v>
+      </c>
+      <c r="M12" s="61">
+        <v>50</v>
+      </c>
+      <c r="N12" s="78">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+      <c r="O12" s="83"/>
+      <c r="P12" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41">
+        <v>3</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="34">
+        <v>12</v>
+      </c>
+      <c r="H13" s="34">
+        <v>40</v>
+      </c>
+      <c r="I13" s="47">
+        <f>G13*H13</f>
+        <v>480</v>
+      </c>
+      <c r="J13" s="34">
+        <v>40</v>
+      </c>
+      <c r="K13" s="48">
+        <f>G13*K$3</f>
+        <v>120</v>
+      </c>
+      <c r="L13" s="34">
+        <v>100</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="69">
+        <v>4</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="73">
+        <v>1</v>
+      </c>
+      <c r="H14" s="73">
+        <v>40</v>
+      </c>
+      <c r="I14" s="74">
+        <f>G14*H14</f>
+        <v>40</v>
+      </c>
+      <c r="J14" s="75">
+        <v>40</v>
+      </c>
+      <c r="K14" s="76">
+        <v>10</v>
+      </c>
+      <c r="L14" s="73">
+        <v>100</v>
+      </c>
+      <c r="M14" s="73">
+        <v>100</v>
+      </c>
+      <c r="N14" s="80">
+        <f>J14*M14</f>
+        <v>4000</v>
+      </c>
+      <c r="O14" s="84"/>
+      <c r="P14" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="69">
+        <v>5</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="73">
+        <v>2</v>
+      </c>
+      <c r="H15" s="73">
+        <v>40</v>
+      </c>
+      <c r="I15" s="74">
+        <f>G15*H15</f>
+        <v>80</v>
+      </c>
+      <c r="J15" s="75">
+        <v>40</v>
+      </c>
+      <c r="K15" s="76">
+        <v>10</v>
+      </c>
+      <c r="L15" s="73">
+        <v>100</v>
+      </c>
+      <c r="M15" s="73">
+        <v>100</v>
+      </c>
+      <c r="N15" s="80">
+        <f>J15*M15</f>
+        <v>4000</v>
+      </c>
+      <c r="O15" s="84"/>
+      <c r="P15" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="60">
+        <v>6</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="61">
+        <v>1</v>
+      </c>
+      <c r="H16" s="61">
+        <v>210</v>
+      </c>
+      <c r="I16" s="61">
+        <v>210</v>
+      </c>
+      <c r="J16" s="61">
+        <v>210</v>
+      </c>
+      <c r="K16" s="65">
+        <v>10</v>
+      </c>
+      <c r="L16" s="61">
+        <v>10</v>
+      </c>
+      <c r="M16" s="61">
+        <v>10</v>
+      </c>
+      <c r="N16" s="78">
+        <f>J16*M16</f>
+        <v>2100</v>
+      </c>
+      <c r="O16" s="83"/>
+      <c r="P16" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="60">
+        <v>7</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="61">
+        <v>2</v>
+      </c>
+      <c r="H17" s="61">
+        <v>40</v>
+      </c>
+      <c r="I17" s="47">
+        <f>G17*H17</f>
+        <v>80</v>
+      </c>
+      <c r="J17" s="61">
+        <v>40</v>
+      </c>
+      <c r="K17" s="65">
+        <v>10</v>
+      </c>
+      <c r="L17" s="61">
+        <v>100</v>
+      </c>
+      <c r="M17" s="61">
+        <v>100</v>
+      </c>
+      <c r="N17" s="78">
+        <f>J17*M17</f>
+        <v>4000</v>
+      </c>
+      <c r="O17" s="83"/>
+      <c r="P17" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="56">
+        <v>8</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="56"/>
+      <c r="C19" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="34">
+        <v>2</v>
+      </c>
+      <c r="H19" s="34">
+        <v>130</v>
+      </c>
+      <c r="I19" s="47">
+        <f>G19*H19</f>
+        <v>260</v>
+      </c>
+      <c r="J19" s="47">
+        <v>130</v>
+      </c>
+      <c r="K19" s="48">
+        <f>G19*K$3</f>
+        <v>20</v>
+      </c>
+      <c r="L19" s="34">
+        <v>300</v>
+      </c>
+      <c r="M19" s="34">
+        <v>300</v>
+      </c>
+      <c r="N19" s="79"/>
+      <c r="O19" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" spans="2:17" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="57"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="38">
+        <v>8</v>
+      </c>
+      <c r="H20" s="38">
+        <v>130</v>
+      </c>
+      <c r="I20" s="49">
+        <f>G20*H20</f>
+        <v>1040</v>
+      </c>
+      <c r="J20" s="49">
+        <v>130</v>
+      </c>
+      <c r="K20" s="50">
+        <f>G20*K$3</f>
+        <v>80</v>
+      </c>
+      <c r="L20" s="38">
+        <v>300</v>
+      </c>
+      <c r="M20" s="38">
+        <v>300</v>
+      </c>
+      <c r="N20" s="81">
+        <f>J20*M20</f>
+        <v>39000</v>
+      </c>
+      <c r="O20" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="86"/>
+    </row>
+    <row r="21" spans="2:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="14"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="14"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="23"/>
+      <c r="N21" s="21"/>
+    </row>
+    <row r="22" spans="2:17" s="22" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="23"/>
+      <c r="N22" s="21"/>
+    </row>
+    <row r="23" spans="2:17" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="C24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="52">
+        <v>270</v>
+      </c>
+      <c r="I24" s="53">
+        <f>G24*H24</f>
+        <v>270</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26">
+        <v>20</v>
+      </c>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26">
+        <v>20</v>
+      </c>
+      <c r="N24" s="77">
+        <f t="shared" ref="N24" si="2">J24*M24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="89"/>
+      <c r="P24" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="36">
         <v>2</v>
       </c>
-      <c r="H5" s="26">
-        <v>230</v>
-      </c>
-      <c r="I5" s="29">
-        <f>G5*H5</f>
-        <v>460</v>
-      </c>
-      <c r="J5" s="26">
-        <v>230</v>
-      </c>
-      <c r="K5" s="30">
-        <f>G5*K$3</f>
+      <c r="C25" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="56">
+        <v>3</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="26">
+      <c r="E26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>200</v>
+      </c>
+      <c r="I26" s="47">
+        <f>G26*H26</f>
+        <v>200</v>
+      </c>
+      <c r="J26" s="13">
+        <v>200</v>
+      </c>
+      <c r="K26" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="26">
-        <f t="shared" ref="M5" si="0">K5</f>
-        <v>40</v>
-      </c>
-      <c r="N5" s="29">
-        <f t="shared" ref="N5:N10" si="1">J5*M5</f>
-        <v>9200</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="32">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="10">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10">
-        <v>140</v>
-      </c>
-      <c r="I6" s="13">
-        <f>G6*H6</f>
-        <v>280</v>
-      </c>
-      <c r="J6" s="10">
-        <v>140</v>
-      </c>
-      <c r="K6" s="18">
-        <f>G6*K$3</f>
-        <v>40</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="L26" s="10">
         <v>10</v>
       </c>
-      <c r="M6" s="10">
-        <f>K6</f>
-        <v>40</v>
-      </c>
-      <c r="N6" s="13">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="32">
-        <v>3</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="10">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10">
-        <v>40</v>
-      </c>
-      <c r="I7" s="13">
-        <f>G7*H7</f>
-        <v>800</v>
-      </c>
-      <c r="J7" s="10">
-        <v>40</v>
-      </c>
-      <c r="K7" s="18">
-        <f>G7*K$3</f>
-        <v>400</v>
-      </c>
-      <c r="L7" s="10">
-        <v>100</v>
-      </c>
-      <c r="M7" s="10">
-        <f>K7</f>
-        <v>400</v>
-      </c>
-      <c r="N7" s="13">
-        <f t="shared" si="1"/>
-        <v>16000</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37">
-        <v>4</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>130</v>
-      </c>
-      <c r="I9" s="13">
-        <f>G9*H9</f>
-        <v>260</v>
-      </c>
-      <c r="J9" s="13">
-        <v>130</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" ref="K9:K10" si="2">G9*K$3</f>
-        <v>40</v>
-      </c>
-      <c r="L9" s="10">
-        <v>300</v>
-      </c>
-      <c r="M9" s="10">
-        <v>300</v>
-      </c>
-      <c r="N9" s="13">
-        <f>J9*M9</f>
-        <v>39000</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="42">
-        <v>8</v>
-      </c>
-      <c r="H10" s="42">
-        <v>130</v>
-      </c>
-      <c r="I10" s="43">
-        <f>G10*H10</f>
-        <v>1040</v>
-      </c>
-      <c r="J10" s="43">
-        <v>130</v>
-      </c>
-      <c r="K10" s="44">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="L10" s="42">
-        <v>300</v>
-      </c>
-      <c r="M10" s="42">
-        <v>300</v>
-      </c>
-      <c r="N10" s="43">
-        <f t="shared" si="1"/>
-        <v>39000</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="14"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="14"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="23"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" s="22" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="23"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="M26" s="10">
+        <v>10</v>
+      </c>
+      <c r="N26" s="78">
+        <f t="shared" ref="N26:N27" si="3">J26*M26</f>
+        <v>2000</v>
+      </c>
+      <c r="O26" s="90"/>
+      <c r="P26" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="57"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="39">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="19" t="s">
+      <c r="H27" s="39">
+        <v>200</v>
+      </c>
+      <c r="I27" s="49">
+        <f>G27*H27</f>
+        <v>200</v>
+      </c>
+      <c r="J27" s="40">
+        <v>200</v>
+      </c>
+      <c r="K27" s="39">
         <v>10</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>36</v>
-      </c>
+      <c r="L27" s="39">
+        <v>10</v>
+      </c>
+      <c r="M27" s="39">
+        <v>10</v>
+      </c>
+      <c r="N27" s="88">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="O27" s="91"/>
+      <c r="P27" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="59">
+        <v>2200</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J29" s="59"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J30" s="59"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J31" s="59"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J32" s="59"/>
     </row>
   </sheetData>
   <sortState ref="A12:Y19">
     <sortCondition ref="B12:B19"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="4">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
